--- a/biology/Médecine/1284_en_santé_et_médecine/1284_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1284_en_santé_et_médecine/1284_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1284_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1284_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1284 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1284_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1284_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,18 +523,20 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Construction de la Loge aux grains d'Orsanmichele, à Florence, sur les plans d'Arnolfo di Cambio, pour abriter les marchands de céréales et constituer des réserves en cas de siège ou de famine, et dont les entrepôts, placés en étage à partir de 1337, sont dédiés depuis la fin du XXe siècle à l'exposition des statues originales de l'église[1].
-Épidémie de peste dans la partie orientale de la Russie[2].
-Fondation de l'hôpital Saint-Jean de Lodève[3].
-Les léproseries Saint-Ladre, de la Vieille-Boucherie, de Mazelle et des Bordes sont rattachées à l'hôpital Saint-Nicolas de Metz[4].
-Fondation à Feurs par Jeanne de Montfort, régente de Forez d'une maladrerie qui pourrait être à l'origine de l'actuel centre hospitalier du Forez[5].
-Construction d'un hôpital à Labastide, dans le diocèse de Cahors, en Guyenne[6].
-Fondation de l'hôpital Saint-Barthélemy de Montauban par Jusqunia de la Porta[7].
-Marguerite de Provence fonde à Paris, faubourg Saint-Marcel, le couvent  des filles de Sainte-Claire de la pauvreté Notre-Dame, sur le site duquel s'implantera, au XIXe siècle, une annexe de l'hôpital du Midi, l'hôpital de Lourcine, qui prendra le nom d'hôpital Broca en 1883[8].
-Ibn al-Nafis (1208-1288) est nommé à la direction de l'hôpital Mansuri (en) récemment construit au Caire par le sultan Kélaoun[9].
-1283-1284 : le sultan mamelouk Kélaoun fait agrandir et rénover l'hôpital du Caire (en), qui ne sera détruit qu'en 1910[10].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Construction de la Loge aux grains d'Orsanmichele, à Florence, sur les plans d'Arnolfo di Cambio, pour abriter les marchands de céréales et constituer des réserves en cas de siège ou de famine, et dont les entrepôts, placés en étage à partir de 1337, sont dédiés depuis la fin du XXe siècle à l'exposition des statues originales de l'église.
+Épidémie de peste dans la partie orientale de la Russie.
+Fondation de l'hôpital Saint-Jean de Lodève.
+Les léproseries Saint-Ladre, de la Vieille-Boucherie, de Mazelle et des Bordes sont rattachées à l'hôpital Saint-Nicolas de Metz.
+Fondation à Feurs par Jeanne de Montfort, régente de Forez d'une maladrerie qui pourrait être à l'origine de l'actuel centre hospitalier du Forez.
+Construction d'un hôpital à Labastide, dans le diocèse de Cahors, en Guyenne.
+Fondation de l'hôpital Saint-Barthélemy de Montauban par Jusqunia de la Porta.
+Marguerite de Provence fonde à Paris, faubourg Saint-Marcel, le couvent  des filles de Sainte-Claire de la pauvreté Notre-Dame, sur le site duquel s'implantera, au XIXe siècle, une annexe de l'hôpital du Midi, l'hôpital de Lourcine, qui prendra le nom d'hôpital Broca en 1883.
+Ibn al-Nafis (1208-1288) est nommé à la direction de l'hôpital Mansuri (en) récemment construit au Caire par le sultan Kélaoun.
+1283-1284 : le sultan mamelouk Kélaoun fait agrandir et rénover l'hôpital du Caire (en), qui ne sera détruit qu'en 1910.</t>
         </is>
       </c>
     </row>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1284_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1284_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À Montpellier, Armengaud Blaise (1264-1312) traduit en latin, sous le titre de Cantica, le Poème sur la médecine (Urdjuza fi-tib) d'Avicenne avec son commentaire par Averroès[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À Montpellier, Armengaud Blaise (1264-1312) traduit en latin, sous le titre de Cantica, le Poème sur la médecine (Urdjuza fi-tib) d'Avicenne avec son commentaire par Averroès.
 </t>
         </is>
       </c>
